--- a/2/C2_lap=20/l20.xlsx
+++ b/2/C2_lap=20/l20.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="l20_th1.0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="l20_th0.5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="l20_th1.0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -175,6 +176,230 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>l20_th0.5</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'l20_th0.5'!$C$2:$C$101</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'l20_th0.5'!$D$2:$D$101</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'l20_th0.5'!$C$2:$C$9</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'l20_th0.5'!$D$2:$D$9</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>l20_th1.0</a:t>
             </a:r>
           </a:p>
@@ -275,7 +500,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -388,6 +613,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -815,6 +1089,1464 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>strain</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>最大応力</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>15.35516</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17.5626</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0001666666666666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.351252</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ヤング率</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2107.5092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35.1251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003333333333333334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7025020000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B4" t="n">
+        <v>52.6877</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.053754</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70.2503</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0006666666666666668</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.405006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>87.8128</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0008333333333333334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.756256</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>105.375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.1075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>122.938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001166666666666667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.45876</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>140.501</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001333333333333334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.81002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>158.063</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.16126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>175.626</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001666666666666667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.51252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B12" t="n">
+        <v>193.181</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001833333333333334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.86362</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B13" t="n">
+        <v>210.733</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.21466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B14" t="n">
+        <v>228.255</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002166666666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.5651</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B15" t="n">
+        <v>245.762</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002333333333333334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.91524</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>263.251</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.26502</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B17" t="n">
+        <v>280.735</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002666666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.6147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B18" t="n">
+        <v>298.085</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002833333333333334</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.9617</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B19" t="n">
+        <v>315.356</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.30712</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>332.632</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003166666666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.65264</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>349.791</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.99582</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B22" t="n">
+        <v>366.802</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.336040000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B23" t="n">
+        <v>383.579</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.003666666666666667</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.671580000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B24" t="n">
+        <v>400.238</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003833333333333334</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.004759999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>416.889</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.33778</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>433.537</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.67074</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B27" t="n">
+        <v>449.966</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.004333333333333334</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.999320000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B28" t="n">
+        <v>466.324</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.32648</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B29" t="n">
+        <v>482.511</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.004666666666666667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.650220000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B30" t="n">
+        <v>498.452</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.004833333333333334</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.96904</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B31" t="n">
+        <v>514.693</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.29386</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>531.033</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.005166666666666667</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.62066</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B33" t="n">
+        <v>547.025</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.005333333333333334</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.9405</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B34" t="n">
+        <v>561.896</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.005500000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.23792</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B35" t="n">
+        <v>576.224</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005666666666666667</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.52448</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B36" t="n">
+        <v>590.853</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.005833333333333334</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.81706</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B37" t="n">
+        <v>605.14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.1028</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B38" t="n">
+        <v>619.948</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.006166666666666667</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.39896</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B39" t="n">
+        <v>634.388</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.006333333333333334</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12.68776</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B40" t="n">
+        <v>648.659</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.006500000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.97318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>663.213</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.26426</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B42" t="n">
+        <v>677.867</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006833333333333334</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13.55734</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B43" t="n">
+        <v>692.4640000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.84928</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B44" t="n">
+        <v>707.105</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.007166666666666667</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.1421</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B45" t="n">
+        <v>721.491</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.007333333333333334</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.42982</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B46" t="n">
+        <v>734.706</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.007500000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.69412</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B47" t="n">
+        <v>745.95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.007666666666666667</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.919</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>755.745</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.007833333333333333</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15.1149</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B49" t="n">
+        <v>763.135</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15.2627</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B50" t="n">
+        <v>767.326</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.008166666666666668</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15.34652</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>767.758</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.35516</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B52" t="n">
+        <v>755.174</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.10348</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="B53" t="n">
+        <v>579.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.008666666666666668</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.584</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="B54" t="n">
+        <v>163.734</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.008833333333333335</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.27468</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="B55" t="n">
+        <v>128.369</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.56738</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>122.32</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.009166666666666667</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.4464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="B57" t="n">
+        <v>119.585</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.009333333333333334</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.3917</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="B58" t="n">
+        <v>117.912</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.35824</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="B59" t="n">
+        <v>115.762</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.009666666666666667</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.31524</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="B60" t="n">
+        <v>113.686</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.009833333333333335</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.27372</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>112.679</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.25358</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="B62" t="n">
+        <v>112.092</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01016666666666667</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.24184</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="B63" t="n">
+        <v>111.428</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.22856</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="B64" t="n">
+        <v>110.815</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.2163</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="B65" t="n">
+        <v>110.245</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.2049</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B66" t="n">
+        <v>110.216</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01083333333333334</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.20432</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B67" t="n">
+        <v>110.451</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.20902</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="B68" t="n">
+        <v>111.025</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01116666666666667</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.2205</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="B69" t="n">
+        <v>111.795</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01133333333333333</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.2359</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="B70" t="n">
+        <v>112.753</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.25506</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B71" t="n">
+        <v>113.784</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01166666666666667</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.27568</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="B72" t="n">
+        <v>114.795</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01183333333333333</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.2959</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="B73" t="n">
+        <v>116.077</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.32154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="B74" t="n">
+        <v>117.309</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01216666666666667</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.34618</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="B75" t="n">
+        <v>117.833</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01233333333333333</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.35666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B76" t="n">
+        <v>118.47</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.3694</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="B77" t="n">
+        <v>118.956</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01266666666666667</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.37912</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="B78" t="n">
+        <v>119.651</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.01283333333333334</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.39302</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="B79" t="n">
+        <v>120.487</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.40974</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="B80" t="n">
+        <v>120.708</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01316666666666667</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.41416</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B81" t="n">
+        <v>121.533</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.43066</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="B82" t="n">
+        <v>122.61</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.4522</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="B83" t="n">
+        <v>119.685</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01366666666666667</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.3937</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="B84" t="n">
+        <v>81.26090000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01383333333333333</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.625218</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="B85" t="n">
+        <v>16.0559</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.321118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.6186</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01416666666666667</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.212372</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8.20689</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01433333333333333</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1641378</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.71117</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1542234</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.36261</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.01466666666666667</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1472522</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.18347</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01483333333333334</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1436694</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.07132</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1414264</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.08927</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01516666666666667</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1417854</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.04111</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01533333333333333</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1408222</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.05741</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1411482</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.10319</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01566666666666667</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.1420638</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.17875</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01583333333333333</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.143575</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.25432</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1450864</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.32989</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01616666666666667</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1465978</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.40545</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.01633333333333334</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.148109</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.42724</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1485448</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.15288</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1430576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2323,13 +4055,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,13 +4089,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>l20_th0.5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.35516</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2107.5092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>l20_th1.0</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>15.44698</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3178.78210909091</v>
       </c>
     </row>
